--- a/biology/Zoologie/Acanthosaura_nataliae/Acanthosaura_nataliae.xlsx
+++ b/biology/Zoologie/Acanthosaura_nataliae/Acanthosaura_nataliae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthosaura nataliae ou Acanthosaure à cornes est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthosaura nataliae ou Acanthosaure à cornes est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce ne se rencontre que dans les forêts tropicales humides de la chaîne annamitique au Laos et au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ne se rencontre que dans les forêts tropicales humides de la chaîne annamitique au Laos et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce saurien à une rangée d'épines qui descendent sur son dos. La femelle est verte ; et le mâle a une couleur qui varie du jaune au rouge-orange et brun.
-L'Acanthosaure  à cornes est souvent sur les troncs d'arbres. Il se nourrit d'insectes, de fleurs et de fruits[2].
+L'Acanthosaure  à cornes est souvent sur les troncs d'arbres. Il se nourrit d'insectes, de fleurs et de fruits.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Natalia Borisovna Ananjeva[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Natalia Borisovna Ananjeva.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Orlov, Truong &amp; Sang, 2006 : A new Acanthosaura allied to A. capra Günther, 1861 (Agamidae, Sauria) from central Vietnam and southern Laos. Russian Journal of Herpetology, vol. 13, no 1, p. 61-76.</t>
         </is>
